--- a/biology/Microbiologie/Revtraviricetes/Revtraviricetes.xlsx
+++ b/biology/Microbiologie/Revtraviricetes/Revtraviricetes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Revtraviricetes sont une classe de virus contenant tous les virus codant une transcriptase inverse, donc elle comprend tous les virus ssRNA-RT (y compris les rétrovirus) et les virus dsDNA-RT. C'est la seule classe de l'embranchement Artverviricota, qui est le seul embranchement du royaume des Pararnavirae[1]. Le nom de cette classe est un portemanteau de « reverse transcriptase » et - viricetes qui est le suffixe pour une classe de virus[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Revtraviricetes sont une classe de virus contenant tous les virus codant une transcriptase inverse, donc elle comprend tous les virus ssRNA-RT (y compris les rétrovirus) et les virus dsDNA-RT. C'est la seule classe de l'embranchement Artverviricota, qui est le seul embranchement du royaume des Pararnavirae. Le nom de cette classe est un portemanteau de « reverse transcriptase » et - viricetes qui est le suffixe pour une classe de virus.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les familles suivantes font partie de cette classe de virus :
 Blubervirales (par exemple le virus de l'hépatite B )
